--- a/Verifs sections en Té.xlsx
+++ b/Verifs sections en Té.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\BUREAU D'ETUDE\Excels\Developpement Té En Cours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7423996F-4BF8-4646-9964-2F632F92FF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F0CC24-099F-4032-8A7C-50975118187B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{543596E8-728B-42EC-9F0E-B63419353D55}"/>
   </bookViews>
@@ -353,12 +353,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,16 +401,16 @@
       <definedName name="leff_GrCent_NC"/>
       <definedName name="leff_GrInt_NC"/>
       <definedName name="leff_GrIntExt_NC"/>
-      <definedName name="leff_Rcent_C"/>
+      <definedName name="leff_RCent_C"/>
       <definedName name="leff_RCent_NC"/>
-      <definedName name="leff_Rext_C"/>
+      <definedName name="leff_RExt_C"/>
       <definedName name="leff_RExt_NC"/>
+      <definedName name="leff_RExt_raidie_C"/>
+      <definedName name="leff_RExt_raidie_NC"/>
       <definedName name="leff_RInt_C"/>
       <definedName name="leff_RInt_NC"/>
-      <definedName name="leff_Rsimple_C"/>
-      <definedName name="leff_Rsimple_NC"/>
-      <definedName name="leffRExt_raidie_C"/>
-      <definedName name="leffRExt_raidie_NC"/>
+      <definedName name="leff_RSimple_C"/>
+      <definedName name="leff_RSimple_NC"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -720,8 +719,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:R163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="K153" sqref="K153"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="J160" sqref="J160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +879,7 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -891,7 +890,7 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -902,7 +901,7 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -969,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <f>[1]!leff_Rsimple_C(G26)</f>
+        <f>[1]!leff_RSimple_C(G26)</f>
         <v>6.2831853071795862</v>
       </c>
       <c r="I26" t="s">
@@ -997,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="H27">
-        <f>[1]!leff_Rsimple_C(G27)</f>
+        <f>[1]!leff_RSimple_C(G27)</f>
         <v>12.566370614359172</v>
       </c>
       <c r="I27" t="s">
@@ -1025,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="H28">
-        <f>[1]!leff_Rsimple_C(G28)</f>
+        <f>[1]!leff_RSimple_C(G28)</f>
         <v>31.415926535897931</v>
       </c>
       <c r="I28" t="s">
@@ -1053,7 +1052,7 @@
         <v>5.3</v>
       </c>
       <c r="H29">
-        <f>[1]!leff_Rsimple_C(G29)</f>
+        <f>[1]!leff_RSimple_C(G29)</f>
         <v>33.300882128051803</v>
       </c>
       <c r="I29" t="s">
@@ -1084,7 +1083,7 @@
         <v>50.2</v>
       </c>
       <c r="H30">
-        <f>[1]!leff_Rsimple_C(G30)</f>
+        <f>[1]!leff_RSimple_C(G30)</f>
         <v>315.41590242041525</v>
       </c>
       <c r="I30" t="s">
@@ -1112,7 +1111,7 @@
         <v>27</v>
       </c>
       <c r="H31" t="e">
-        <f>[1]!leff_Rsimple_C(G31)</f>
+        <f>[1]!leff_RSimple_C(G31)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I31" t="s">
@@ -1181,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <f>[1]!leff_Rsimple_NC(E36,F36,G36)</f>
+        <f>[1]!leff_RSimple_NC(E36,F36,G36)</f>
         <v>0</v>
       </c>
       <c r="I36" t="s">
@@ -1199,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="H37">
-        <f>[1]!leff_Rsimple_NC(E37,F37,G37)</f>
+        <f>[1]!leff_RSimple_NC(E37,F37,G37)</f>
         <v>5.25</v>
       </c>
       <c r="I37" t="s">
@@ -1217,7 +1216,7 @@
         <v>0.5</v>
       </c>
       <c r="H38">
-        <f>[1]!leff_Rsimple_NC(E38,F38,G38)</f>
+        <f>[1]!leff_RSimple_NC(E38,F38,G38)</f>
         <v>0.5</v>
       </c>
       <c r="I38" t="s">
@@ -1235,7 +1234,7 @@
         <v>0.5</v>
       </c>
       <c r="H39" t="e">
-        <f>[1]!leff_Rsimple_NC(E39,F39,G39)</f>
+        <f>[1]!leff_RSimple_NC(E39,F39,G39)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I39" t="s">
@@ -1253,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="e">
-        <f>[1]!leff_Rsimple_NC(E40,F40,G40)</f>
+        <f>[1]!leff_RSimple_NC(E40,F40,G40)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I40" t="s">
@@ -1271,7 +1270,7 @@
         <v>32</v>
       </c>
       <c r="H41" t="e">
-        <f>[1]!leff_Rsimple_NC(E41,F41,G41)</f>
+        <f>[1]!leff_RSimple_NC(E41,F41,G41)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I41" t="s">
@@ -1395,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <f>[1]!leff_RInt_NC(E56,F56,G56)</f>
+        <f>[1]!leff_RInt_NC(E56,G56,F56)</f>
         <v>5.67</v>
       </c>
       <c r="I56">
@@ -1417,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="H57" t="e">
-        <f>[1]!leff_RInt_NC(E57,F57,G57)</f>
+        <f>[1]!leff_RInt_NC(E57,G57,F57)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I57" t="e">
@@ -1439,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="H58" t="e">
-        <f>[1]!leff_RInt_NC(E58,F58,G58)</f>
+        <f>[1]!leff_RInt_NC(E58,G58,F58)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I58" t="e">
@@ -1461,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="H59" t="e">
-        <f>[1]!leff_RInt_NC(E59,F59,G59)</f>
+        <f>[1]!leff_RInt_NC(E59,G59,F59)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I59" t="e">
@@ -1483,7 +1482,7 @@
         <v>41</v>
       </c>
       <c r="H60" t="e">
-        <f>[1]!leff_RInt_NC(E60,F60,G60)</f>
+        <f>[1]!leff_RInt_NC(E60,G60,F60)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I60" t="e">
@@ -1522,7 +1521,7 @@
         <v>0.2</v>
       </c>
       <c r="H65">
-        <f>[1]!leff_Rext_C(E65,F65,G65)</f>
+        <f>[1]!leff_RExt_C(E65,G65,F65)</f>
         <v>3.541592653589793</v>
       </c>
       <c r="I65" t="s">
@@ -1540,7 +1539,7 @@
         <v>0.8</v>
       </c>
       <c r="H66">
-        <f>[1]!leff_Rext_C(E66,F66,G66)</f>
+        <f>[1]!leff_RExt_C(E66,G66,F66)</f>
         <v>4.1415926535897931</v>
       </c>
       <c r="I66" t="s">
@@ -1558,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="H67">
-        <f>[1]!leff_Rext_C(E67,F67,G67)</f>
+        <f>[1]!leff_RExt_C(E67,G67,F67)</f>
         <v>6.2831853071795862</v>
       </c>
       <c r="I67" t="s">
@@ -1576,7 +1575,7 @@
         <v>6</v>
       </c>
       <c r="H68">
-        <f>[1]!leff_Rext_C(E68,F68,G68)</f>
+        <f>[1]!leff_RExt_C(E68,G68,F68)</f>
         <v>6.9115038378975457</v>
       </c>
       <c r="I68" t="s">
@@ -1594,7 +1593,7 @@
         <v>0.2</v>
       </c>
       <c r="H69" t="e">
-        <f>[1]!leff_Rext_C(E69,F69,G69)</f>
+        <f>[1]!leff_RExt_C(E69,G69,F69)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I69" t="s">
@@ -1612,7 +1611,7 @@
         <v>0.2</v>
       </c>
       <c r="H70" t="e">
-        <f>[1]!leff_Rext_C(E70,F70,G70)</f>
+        <f>[1]!leff_RExt_C(E70,G70,F70)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I70" t="s">
@@ -1630,7 +1629,7 @@
         <v>48</v>
       </c>
       <c r="H71" t="e">
-        <f>[1]!leff_Rext_C(E71,F71,G71)</f>
+        <f>[1]!leff_RExt_C(E71,G71,F71)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I71" t="s">
@@ -1892,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <f>[1]!leff_Rcent_C(G89)</f>
+        <f>[1]!leff_RCent_C(G89)</f>
         <v>6.2831853071795862</v>
       </c>
       <c r="I89" t="s">
@@ -1904,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="H90">
-        <f>[1]!leff_Rcent_C(G90)</f>
+        <f>[1]!leff_RCent_C(G90)</f>
         <v>12.566370614359172</v>
       </c>
       <c r="I90" t="s">
@@ -1916,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="H91">
-        <f>[1]!leff_Rcent_C(G91)</f>
+        <f>[1]!leff_RCent_C(G91)</f>
         <v>31.415926535897931</v>
       </c>
       <c r="I91" t="s">
@@ -1928,7 +1927,7 @@
         <v>5.3</v>
       </c>
       <c r="H92">
-        <f>[1]!leff_Rcent_C(G92)</f>
+        <f>[1]!leff_RCent_C(G92)</f>
         <v>33.300882128051803</v>
       </c>
       <c r="I92" t="s">
@@ -1940,7 +1939,7 @@
         <v>50.2</v>
       </c>
       <c r="H93">
-        <f>[1]!leff_Rcent_C(G93)</f>
+        <f>[1]!leff_RCent_C(G93)</f>
         <v>315.41590242041525</v>
       </c>
       <c r="I93" t="s">
@@ -1952,7 +1951,7 @@
         <v>27</v>
       </c>
       <c r="H94" t="e">
-        <f>[1]!leff_Rcent_C(G94)</f>
+        <f>[1]!leff_RCent_C(G94)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I94" t="s">
@@ -2067,7 +2066,7 @@
         <v>8</v>
       </c>
       <c r="H107">
-        <f>[1]!leffRExt_raidie_C(D107,E107,F107,G107)</f>
+        <f>[1]!leff_RExt_raidie_C(D107,E107,F107,G107)</f>
         <v>0.62831853071795862</v>
       </c>
       <c r="I107" t="s">
@@ -2088,7 +2087,7 @@
         <v>0.2</v>
       </c>
       <c r="H108">
-        <f>[1]!leffRExt_raidie_C(D108,E108,F108,G108)</f>
+        <f>[1]!leff_RExt_raidie_C(D108,E108,F108,G108)</f>
         <v>9.8247779607693797</v>
       </c>
       <c r="I108" t="s">
@@ -2109,7 +2108,7 @@
         <v>8</v>
       </c>
       <c r="H109">
-        <f>[1]!leffRExt_raidie_C(D109,E109,F109,G109)</f>
+        <f>[1]!leff_RExt_raidie_C(D109,E109,F109,G109)</f>
         <v>0.62831853071795862</v>
       </c>
       <c r="I109" t="s">
@@ -2130,7 +2129,7 @@
         <v>8</v>
       </c>
       <c r="H110">
-        <f>[1]!leffRExt_raidie_C(D110,E110,F110,G110)</f>
+        <f>[1]!leff_RExt_raidie_C(D110,E110,F110,G110)</f>
         <v>9.6247779607693786</v>
       </c>
       <c r="I110" t="s">
@@ -2151,7 +2150,7 @@
         <v>8</v>
       </c>
       <c r="H111" t="e">
-        <f>[1]!leffRExt_raidie_C(D111,E111,F111,G111)</f>
+        <f>[1]!leff_RExt_raidie_C(D111,E111,F111,G111)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I111" t="s">
@@ -2172,7 +2171,7 @@
         <v>8</v>
       </c>
       <c r="H112" t="e">
-        <f>[1]!leffRExt_raidie_C(D112,E112,F112,G112)</f>
+        <f>[1]!leff_RExt_raidie_C(D112,E112,F112,G112)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I112" t="s">
@@ -2193,7 +2192,7 @@
         <v>8</v>
       </c>
       <c r="H113" t="e">
-        <f>[1]!leffRExt_raidie_C(D113,E113,F113,G113)</f>
+        <f>[1]!leff_RExt_raidie_C(D113,E113,F113,G113)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I113" t="s">
@@ -2214,7 +2213,7 @@
         <v>65</v>
       </c>
       <c r="H114" t="e">
-        <f>[1]!leffRExt_raidie_C(D114,E114,F114,G114)</f>
+        <f>[1]!leff_RExt_raidie_C(D114,E114,F114,G114)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I114" t="s">
@@ -2261,7 +2260,7 @@
         <v>35</v>
       </c>
       <c r="H122">
-        <f>[1]!leffRExt_raidie_NC(D122,E122,F122,G122)</f>
+        <f>[1]!leff_RExt_raidie_NC(D122,E122,F122,G122)</f>
         <v>141.43463161176649</v>
       </c>
       <c r="I122" t="s">
@@ -2290,7 +2289,7 @@
         <v>35</v>
       </c>
       <c r="H123">
-        <f>[1]!leffRExt_raidie_NC(D123,E123,F123,G123)</f>
+        <f>[1]!leff_RExt_raidie_NC(D123,E123,F123,G123)</f>
         <v>112.8125</v>
       </c>
       <c r="I123" t="s">
@@ -2319,7 +2318,7 @@
         <v>80</v>
       </c>
       <c r="H124">
-        <f>[1]!leffRExt_raidie_NC(D124,E124,F124,G124)</f>
+        <f>[1]!leff_RExt_raidie_NC(D124,E124,F124,G124)</f>
         <v>105</v>
       </c>
       <c r="I124" t="s">
@@ -2348,7 +2347,7 @@
         <v>20</v>
       </c>
       <c r="H125">
-        <f>[1]!leffRExt_raidie_NC(D125,E125,F125,G125)</f>
+        <f>[1]!leff_RExt_raidie_NC(D125,E125,F125,G125)</f>
         <v>105</v>
       </c>
       <c r="I125" t="s">
@@ -2377,7 +2376,7 @@
         <v>20</v>
       </c>
       <c r="H126" t="e">
-        <f>[1]!leffRExt_raidie_NC(D126,E126,F126,G126)</f>
+        <f>[1]!leff_RExt_raidie_NC(D126,E126,F126,G126)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I126" t="s">
@@ -2406,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="H127" t="e">
-        <f>[1]!leffRExt_raidie_NC(D127,E127,F127,G127)</f>
+        <f>[1]!leff_RExt_raidie_NC(D127,E127,F127,G127)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I127" t="s">
@@ -2435,7 +2434,7 @@
         <v>20</v>
       </c>
       <c r="H128" t="e">
-        <f>[1]!leffRExt_raidie_NC(D128,E128,F128,G128)</f>
+        <f>[1]!leff_RExt_raidie_NC(D128,E128,F128,G128)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I128" t="s">
@@ -2464,7 +2463,7 @@
         <v>71</v>
       </c>
       <c r="H129" t="e">
-        <f>[1]!leffRExt_raidie_NC(D129,E129,F129,G129)</f>
+        <f>[1]!leff_RExt_raidie_NC(D129,E129,F129,G129)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I129" t="s">
